--- a/edges_LFPG.xlsx
+++ b/edges_LFPG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bramverweij_tudelft_nl/Documents/Documenten/Aerospace Engineering MSc/AE4422-20/assignment_G01/AE4422-20_G01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{AFB8F562-B91C-48CF-8225-A6FAF91BFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163C26BA-6211-4C8B-B2F1-5394F2A1C347}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{AFB8F562-B91C-48CF-8225-A6FAF91BFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5F97FD5-1E99-447B-B366-11010AC24881}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="2910" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="8625" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C346"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="U297" sqref="U297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3144,10 +3144,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
+        <v>100</v>
+      </c>
+      <c r="B251">
         <v>81</v>
-      </c>
-      <c r="B251">
-        <v>100</v>
       </c>
       <c r="C251">
         <v>0.5</v>
@@ -3155,10 +3155,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
+        <v>81</v>
+      </c>
+      <c r="B252">
         <v>100</v>
-      </c>
-      <c r="B252">
-        <v>81</v>
       </c>
       <c r="C252">
         <v>0.5</v>
@@ -3166,10 +3166,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
+        <v>107</v>
+      </c>
+      <c r="B253">
         <v>81</v>
-      </c>
-      <c r="B253">
-        <v>101</v>
       </c>
       <c r="C253">
         <v>0.5</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B254">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C254">
         <v>0.5</v>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B255">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C255">
         <v>0.5</v>
@@ -3199,10 +3199,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B256">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C256">
         <v>0.5</v>
@@ -3210,10 +3210,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B257">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C257">
         <v>0.5</v>
@@ -3221,10 +3221,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B258">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C258">
         <v>0.5</v>
@@ -3232,10 +3232,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B259">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C259">
         <v>0.5</v>
@@ -3243,10 +3243,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
+        <v>83</v>
+      </c>
+      <c r="B260">
         <v>102</v>
-      </c>
-      <c r="B260">
-        <v>82</v>
       </c>
       <c r="C260">
         <v>0.5</v>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B261">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C261">
         <v>0.5</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
+        <v>84</v>
+      </c>
+      <c r="B262">
         <v>103</v>
-      </c>
-      <c r="B262">
-        <v>82</v>
       </c>
       <c r="C262">
         <v>0.5</v>
@@ -3276,10 +3276,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B263">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C263">
         <v>0.5</v>
@@ -3287,10 +3287,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B264">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C264">
         <v>0.5</v>
@@ -3298,10 +3298,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B265">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C265">
         <v>0.5</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B266">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C266">
         <v>0.5</v>
@@ -3320,10 +3320,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B267">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C267">
         <v>0.5</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B268">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C268">
         <v>0.5</v>
@@ -3342,10 +3342,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B269">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C269">
         <v>0.5</v>
@@ -3353,10 +3353,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
+        <v>86</v>
+      </c>
+      <c r="B270">
         <v>105</v>
-      </c>
-      <c r="B270">
-        <v>83</v>
       </c>
       <c r="C270">
         <v>0.5</v>
@@ -3364,10 +3364,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B271">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C271">
         <v>0.5</v>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
+        <v>86</v>
+      </c>
+      <c r="B272">
         <v>106</v>
-      </c>
-      <c r="B272">
-        <v>84</v>
       </c>
       <c r="C272">
         <v>0.5</v>
@@ -3386,10 +3386,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B273">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C273">
         <v>0.5</v>
@@ -3397,10 +3397,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B274">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C274">
         <v>0.5</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B275">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C275">
         <v>0.5</v>
@@ -3419,10 +3419,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B276">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C276">
         <v>0.5</v>
@@ -3430,10 +3430,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B277">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C277">
         <v>0.5</v>
@@ -3441,10 +3441,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B278">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C278">
         <v>0.5</v>
@@ -3452,10 +3452,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B279">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C279">
         <v>0.5</v>
@@ -3463,10 +3463,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B280">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C280">
         <v>0.5</v>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B281">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C281">
         <v>0.5</v>
@@ -3485,10 +3485,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B282">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C282">
         <v>0.5</v>
@@ -3496,10 +3496,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B283">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C283">
         <v>0.5</v>
@@ -3507,10 +3507,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B284">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C284">
         <v>0.5</v>
@@ -3518,10 +3518,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B285">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C285">
         <v>0.5</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B286">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C286">
         <v>0.5</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B287">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C287">
         <v>0.5</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B288">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C288">
         <v>0.5</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B289">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C289">
         <v>0.5</v>
@@ -3573,10 +3573,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B290">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="C290">
         <v>0.5</v>
@@ -3584,10 +3584,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B291">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C291">
         <v>0.5</v>
@@ -3595,10 +3595,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
+        <v>94</v>
+      </c>
+      <c r="B292">
         <v>120</v>
-      </c>
-      <c r="B292">
-        <v>87</v>
       </c>
       <c r="C292">
         <v>0.5</v>
@@ -3606,10 +3606,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B293">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C293">
         <v>0.5</v>
@@ -3617,10 +3617,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
+        <v>95</v>
+      </c>
+      <c r="B294">
         <v>121</v>
-      </c>
-      <c r="B294">
-        <v>87</v>
       </c>
       <c r="C294">
         <v>0.5</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="B295">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C295">
         <v>0.5</v>
@@ -3639,10 +3639,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
+        <v>97</v>
+      </c>
+      <c r="B296">
         <v>122</v>
-      </c>
-      <c r="B296">
-        <v>88</v>
       </c>
       <c r="C296">
         <v>0.5</v>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B297">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C297">
         <v>0.5</v>
@@ -3661,10 +3661,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
+        <v>98</v>
+      </c>
+      <c r="B298">
         <v>123</v>
-      </c>
-      <c r="B298">
-        <v>88</v>
       </c>
       <c r="C298">
         <v>0.5</v>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B299">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C299">
         <v>0.5</v>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
+        <v>99</v>
+      </c>
+      <c r="B300">
         <v>124</v>
-      </c>
-      <c r="B300">
-        <v>89</v>
       </c>
       <c r="C300">
         <v>0.5</v>
@@ -3694,10 +3694,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B301">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="C301">
         <v>0.5</v>
@@ -3705,10 +3705,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="B302">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C302">
         <v>0.5</v>
@@ -3716,10 +3716,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="B303">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="C303">
         <v>0.5</v>
@@ -3727,474 +3727,12 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="B304">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C304">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305">
-        <v>90</v>
-      </c>
-      <c r="B305">
-        <v>127</v>
-      </c>
-      <c r="C305">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306">
-        <v>127</v>
-      </c>
-      <c r="B306">
-        <v>90</v>
-      </c>
-      <c r="C306">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307">
-        <v>91</v>
-      </c>
-      <c r="B307">
-        <v>128</v>
-      </c>
-      <c r="C307">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308">
-        <v>128</v>
-      </c>
-      <c r="B308">
-        <v>91</v>
-      </c>
-      <c r="C308">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309">
-        <v>91</v>
-      </c>
-      <c r="B309">
-        <v>129</v>
-      </c>
-      <c r="C309">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310">
-        <v>129</v>
-      </c>
-      <c r="B310">
-        <v>91</v>
-      </c>
-      <c r="C310">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311">
-        <v>92</v>
-      </c>
-      <c r="B311">
-        <v>130</v>
-      </c>
-      <c r="C311">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312">
-        <v>130</v>
-      </c>
-      <c r="B312">
-        <v>92</v>
-      </c>
-      <c r="C312">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313">
-        <v>92</v>
-      </c>
-      <c r="B313">
-        <v>131</v>
-      </c>
-      <c r="C313">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314">
-        <v>131</v>
-      </c>
-      <c r="B314">
-        <v>92</v>
-      </c>
-      <c r="C314">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315">
-        <v>93</v>
-      </c>
-      <c r="B315">
-        <v>132</v>
-      </c>
-      <c r="C315">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316">
-        <v>132</v>
-      </c>
-      <c r="B316">
-        <v>93</v>
-      </c>
-      <c r="C316">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317">
-        <v>93</v>
-      </c>
-      <c r="B317">
-        <v>133</v>
-      </c>
-      <c r="C317">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318">
-        <v>133</v>
-      </c>
-      <c r="B318">
-        <v>93</v>
-      </c>
-      <c r="C318">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319">
-        <v>94</v>
-      </c>
-      <c r="B319">
-        <v>134</v>
-      </c>
-      <c r="C319">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320">
-        <v>134</v>
-      </c>
-      <c r="B320">
-        <v>94</v>
-      </c>
-      <c r="C320">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321">
-        <v>94</v>
-      </c>
-      <c r="B321">
-        <v>135</v>
-      </c>
-      <c r="C321">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>135</v>
-      </c>
-      <c r="B322">
-        <v>94</v>
-      </c>
-      <c r="C322">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>96</v>
-      </c>
-      <c r="B323">
-        <v>136</v>
-      </c>
-      <c r="C323">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>136</v>
-      </c>
-      <c r="B324">
-        <v>96</v>
-      </c>
-      <c r="C324">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>96</v>
-      </c>
-      <c r="B325">
-        <v>137</v>
-      </c>
-      <c r="C325">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>137</v>
-      </c>
-      <c r="B326">
-        <v>96</v>
-      </c>
-      <c r="C326">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>95</v>
-      </c>
-      <c r="B327">
-        <v>138</v>
-      </c>
-      <c r="C327">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>138</v>
-      </c>
-      <c r="B328">
-        <v>95</v>
-      </c>
-      <c r="C328">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>95</v>
-      </c>
-      <c r="B329">
-        <v>139</v>
-      </c>
-      <c r="C329">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>139</v>
-      </c>
-      <c r="B330">
-        <v>95</v>
-      </c>
-      <c r="C330">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>97</v>
-      </c>
-      <c r="B331">
-        <v>140</v>
-      </c>
-      <c r="C331">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>140</v>
-      </c>
-      <c r="B332">
-        <v>97</v>
-      </c>
-      <c r="C332">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>97</v>
-      </c>
-      <c r="B333">
-        <v>141</v>
-      </c>
-      <c r="C333">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>141</v>
-      </c>
-      <c r="B334">
-        <v>97</v>
-      </c>
-      <c r="C334">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>98</v>
-      </c>
-      <c r="B335">
-        <v>142</v>
-      </c>
-      <c r="C335">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>142</v>
-      </c>
-      <c r="B336">
-        <v>98</v>
-      </c>
-      <c r="C336">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>98</v>
-      </c>
-      <c r="B337">
-        <v>143</v>
-      </c>
-      <c r="C337">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>143</v>
-      </c>
-      <c r="B338">
-        <v>98</v>
-      </c>
-      <c r="C338">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>99</v>
-      </c>
-      <c r="B339">
-        <v>144</v>
-      </c>
-      <c r="C339">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>144</v>
-      </c>
-      <c r="B340">
-        <v>99</v>
-      </c>
-      <c r="C340">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>99</v>
-      </c>
-      <c r="B341">
-        <v>145</v>
-      </c>
-      <c r="C341">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>145</v>
-      </c>
-      <c r="B342">
-        <v>99</v>
-      </c>
-      <c r="C342">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>73</v>
-      </c>
-      <c r="B343">
-        <v>200</v>
-      </c>
-      <c r="C343">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>200</v>
-      </c>
-      <c r="B344">
-        <v>73</v>
-      </c>
-      <c r="C344">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>48</v>
-      </c>
-      <c r="B345">
-        <v>201</v>
-      </c>
-      <c r="C345">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>201</v>
-      </c>
-      <c r="B346">
-        <v>48</v>
-      </c>
-      <c r="C346">
         <v>0.5</v>
       </c>
     </row>
